--- a/Job_Data/Computer Science Domain New Data/7126/merged_domain_analysis.xlsx
+++ b/Job_Data/Computer Science Domain New Data/7126/merged_domain_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishwas\Desktop\Thesis\ontology_translation\Job_Data\Computer Science Domain New Data\7126\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38907072-912A-4B15-BCB6-75CA802A7936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A91DBC6-EA6B-4DBD-A578-CAD78B12ED39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5819,7 +5819,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B233AE7A-53D5-49F3-B50B-545048DE7EE7}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B233AE7A-53D5-49F3-B50B-545048DE7EE7}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A2:H178" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
@@ -6859,7 +6859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B998"/>
     </sheetView>
   </sheetViews>
@@ -17852,7 +17852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D74E74F-0467-4A9F-B235-AED3AF4166A0}">
   <dimension ref="A2:H178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
